--- a/tree/sys/result.xlsx
+++ b/tree/sys/result.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="248">
   <si>
     <t>分析测试数据汇交模板 填写说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,7 +1125,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cc9756f0-6699-4823-af50-23510e7992a0</t>
+    <t>3e8cd0c7-ce29-4392-a9c7-3b9b131ee238</t>
   </si>
   <si>
     <t>22I</t>
@@ -1140,7 +1140,7 @@
     <t>C131390001</t>
   </si>
   <si>
-    <t>a3a9b5f1-1196-4fb3-9f38-f1fe29d323c7</t>
+    <t>964737ec-80d5-425b-a134-79b423ce630f</t>
   </si>
   <si>
     <t>去钙沉积物</t>
@@ -1149,7 +1149,7 @@
     <t>C131390002</t>
   </si>
   <si>
-    <t>9cc1c093-9590-4fb0-b40d-fd66115f4f28</t>
+    <t>0437b915-d4a1-42eb-a6b9-e19df0464a4a</t>
   </si>
   <si>
     <t>22I-SWIR-S052-TVG2</t>
@@ -1158,13 +1158,13 @@
     <t>C131390003</t>
   </si>
   <si>
-    <t>a53a97ec-9b1d-43d8-bbfa-6027a856fdfa</t>
+    <t>071d2772-fd0a-411c-b533-e79edb577d99</t>
   </si>
   <si>
     <t>C131390004</t>
   </si>
   <si>
-    <t>1ffb9f96-6fea-4bac-a53c-0fb0b0bbce0b</t>
+    <t>aebe9348-5861-41fd-8642-5becce659bec</t>
   </si>
   <si>
     <t>22I-SWIR-S055-TVG3</t>
@@ -3998,6 +3998,51 @@
         <v>122</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:AB2"/>
@@ -4378,14 +4423,14 @@
       <c r="A6" t="s">
         <v>232</v>
       </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
       <c r="T6" t="n">
         <v>4.57</v>
       </c>
       <c r="U6" t="n">
         <v>1500.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.7</v>
       </c>
       <c r="W6" t="n">
         <v>5.96</v>
@@ -4416,14 +4461,14 @@
       <c r="A7" t="s">
         <v>237</v>
       </c>
-      <c r="B7" t="s">
-        <v>239</v>
-      </c>
       <c r="T7" t="n">
         <v>83.0</v>
       </c>
       <c r="U7" t="n">
         <v>218.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10.7</v>
       </c>
       <c r="W7" t="n">
         <v>146.0</v>
@@ -4454,14 +4499,14 @@
       <c r="A8" t="s">
         <v>240</v>
       </c>
-      <c r="B8" t="s">
-        <v>242</v>
-      </c>
       <c r="T8" t="n">
         <v>5.73</v>
       </c>
       <c r="U8" t="n">
         <v>1590.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8.41</v>
       </c>
       <c r="W8" t="n">
         <v>8.04</v>
@@ -4492,14 +4537,14 @@
       <c r="A9" t="s">
         <v>243</v>
       </c>
-      <c r="B9" t="s">
-        <v>244</v>
-      </c>
       <c r="T9" t="n">
         <v>73.4</v>
       </c>
       <c r="U9" t="n">
         <v>396.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10.1</v>
       </c>
       <c r="W9" t="n">
         <v>116.0</v>
@@ -4530,14 +4575,14 @@
       <c r="A10" t="s">
         <v>245</v>
       </c>
-      <c r="B10" t="s">
-        <v>247</v>
-      </c>
       <c r="T10" t="n">
         <v>3.46</v>
       </c>
       <c r="U10" t="n">
         <v>1880.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8.52</v>
       </c>
       <c r="W10" t="n">
         <v>6.66</v>
@@ -4794,6 +4839,196 @@
       </c>
       <c r="U5" s="8" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/tree/sys/result.xlsx
+++ b/tree/sys/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="929" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="929" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="XRD" sheetId="14" r:id="rId15"/>
     <sheet name="手标本" sheetId="15" r:id="rId16"/>
     <sheet name="光、薄片" sheetId="16" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId18"/>
+    <sheet name="ExtraSheet" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="分析测试方法">词汇集!$A$2:$A$10</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="253">
   <si>
     <t>分析测试数据汇交模板 填写说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,7 +1125,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3e8cd0c7-ce29-4392-a9c7-3b9b131ee238</t>
+    <t>ef94f136-5bed-41b2-a7a0-fb071aa81866</t>
   </si>
   <si>
     <t>22I</t>
@@ -1137,10 +1137,25 @@
     <t>沉积物</t>
   </si>
   <si>
+    <t xml:space="preserve"> source&gt;Sheet1&gt;Th</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> source&gt;Sheet1&gt;La</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> source&gt;Sheet1&gt;Ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> source&gt;Sheet1&gt;Pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> source&gt;Sheet1&gt;Nd</t>
+  </si>
+  <si>
     <t>C131390001</t>
   </si>
   <si>
-    <t>964737ec-80d5-425b-a134-79b423ce630f</t>
+    <t>812a9fa8-f224-4c6d-a65e-b93bba743ce8</t>
   </si>
   <si>
     <t>去钙沉积物</t>
@@ -1149,7 +1164,7 @@
     <t>C131390002</t>
   </si>
   <si>
-    <t>0437b915-d4a1-42eb-a6b9-e19df0464a4a</t>
+    <t>17bacf93-a71e-48db-aaf2-381bb953203a</t>
   </si>
   <si>
     <t>22I-SWIR-S052-TVG2</t>
@@ -1158,13 +1173,13 @@
     <t>C131390003</t>
   </si>
   <si>
-    <t>071d2772-fd0a-411c-b533-e79edb577d99</t>
+    <t>6a8770a6-ef92-4860-9f27-a2474a5832ca</t>
   </si>
   <si>
     <t>C131390004</t>
   </si>
   <si>
-    <t>aebe9348-5861-41fd-8642-5becce659bec</t>
+    <t>4564c82f-9f38-4621-8f2c-a6856ab0220b</t>
   </si>
   <si>
     <t>22I-SWIR-S055-TVG3</t>
@@ -3256,10 +3271,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3408,7 +3701,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A5" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3535,10 +3828,10 @@
         <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7">
@@ -3546,13 +3839,13 @@
         <v>233</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
         <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8">
@@ -3560,13 +3853,13 @@
         <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9">
@@ -3574,13 +3867,13 @@
         <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E9" t="s">
         <v>235</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3998,51 +4291,6 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:AB2"/>
@@ -4078,7 +4326,7 @@
   <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="A6:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4423,15 +4671,16 @@
       <c r="A6" t="s">
         <v>232</v>
       </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6"/>
       <c r="T6" t="n">
         <v>4.57</v>
       </c>
       <c r="U6" t="n">
         <v>1500.0</v>
       </c>
-      <c r="V6" t="n">
-        <v>6.7</v>
-      </c>
       <c r="W6" t="n">
         <v>5.96</v>
       </c>
@@ -4450,26 +4699,24 @@
       <c r="AE6" t="n">
         <v>0.13</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>0.8</v>
-      </c>
       <c r="AK6" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>237</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7"/>
       <c r="T7" t="n">
         <v>83.0</v>
       </c>
       <c r="U7" t="n">
         <v>218.0</v>
       </c>
-      <c r="V7" t="n">
-        <v>10.7</v>
-      </c>
       <c r="W7" t="n">
         <v>146.0</v>
       </c>
@@ -4488,26 +4735,24 @@
       <c r="AE7" t="n">
         <v>0.88</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>13.2</v>
-      </c>
       <c r="AK7" t="n">
         <v>1.69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>240</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8"/>
       <c r="T8" t="n">
         <v>5.73</v>
       </c>
       <c r="U8" t="n">
         <v>1590.0</v>
       </c>
-      <c r="V8" t="n">
-        <v>8.41</v>
-      </c>
       <c r="W8" t="n">
         <v>8.04</v>
       </c>
@@ -4526,26 +4771,24 @@
       <c r="AE8" t="n">
         <v>0.12</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>0.78</v>
-      </c>
       <c r="AK8" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>243</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9"/>
       <c r="T9" t="n">
         <v>73.4</v>
       </c>
       <c r="U9" t="n">
         <v>396.0</v>
       </c>
-      <c r="V9" t="n">
-        <v>10.1</v>
-      </c>
       <c r="W9" t="n">
         <v>116.0</v>
       </c>
@@ -4564,26 +4807,24 @@
       <c r="AE9" t="n">
         <v>0.76</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>11.0</v>
-      </c>
       <c r="AK9" t="n">
         <v>1.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>245</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10"/>
       <c r="T10" t="n">
         <v>3.46</v>
       </c>
       <c r="U10" t="n">
         <v>1880.0</v>
       </c>
-      <c r="V10" t="n">
-        <v>8.52</v>
-      </c>
       <c r="W10" t="n">
         <v>6.66</v>
       </c>
@@ -4601,9 +4842,6 @@
       </c>
       <c r="AE10" t="n">
         <v>0.099</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.03</v>
       </c>
       <c r="AK10" t="n">
         <v>0.5</v>
@@ -4624,7 +4862,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F194">
       <formula1>检测仪器</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="规范化描述" prompt="请参照词汇集" sqref="E1:E1048576">
@@ -4839,196 +5077,6 @@
       </c>
       <c r="U5" s="8" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.083</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="K7" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>240</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>245</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/tree/sys/result.xlsx
+++ b/tree/sys/result.xlsx
@@ -1125,7 +1125,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ef94f136-5bed-41b2-a7a0-fb071aa81866</t>
+    <t>2f847c81-c0db-4539-8acf-db688b191395</t>
   </si>
   <si>
     <t>22I</t>
@@ -1155,7 +1155,7 @@
     <t>C131390001</t>
   </si>
   <si>
-    <t>812a9fa8-f224-4c6d-a65e-b93bba743ce8</t>
+    <t>c87a9954-7bc0-4994-a2dc-0fcf4b5e0e59</t>
   </si>
   <si>
     <t>去钙沉积物</t>
@@ -1164,7 +1164,7 @@
     <t>C131390002</t>
   </si>
   <si>
-    <t>17bacf93-a71e-48db-aaf2-381bb953203a</t>
+    <t>ba690486-727f-40e0-bd6e-1f7faac3c7d7</t>
   </si>
   <si>
     <t>22I-SWIR-S052-TVG2</t>
@@ -1173,13 +1173,13 @@
     <t>C131390003</t>
   </si>
   <si>
-    <t>6a8770a6-ef92-4860-9f27-a2474a5832ca</t>
+    <t>1fc276d4-9c7a-4b09-a79e-3f5dfd12158d</t>
   </si>
   <si>
     <t>C131390004</t>
   </si>
   <si>
-    <t>4564c82f-9f38-4621-8f2c-a6856ab0220b</t>
+    <t>44e5039c-35b9-43d4-82ce-a1e6b64d14c2</t>
   </si>
   <si>
     <t>22I-SWIR-S055-TVG3</t>

--- a/tree/sys/result.xlsx
+++ b/tree/sys/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="929" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="929" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="246">
   <si>
     <t>分析测试数据汇交模板 填写说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,67 +1125,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2f847c81-c0db-4539-8acf-db688b191395</t>
-  </si>
-  <si>
-    <t>22I</t>
-  </si>
-  <si>
-    <t>22I-SWIR-S050-TVG1</t>
-  </si>
-  <si>
-    <t>沉积物</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> source&gt;Sheet1&gt;Th</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> source&gt;Sheet1&gt;La</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> source&gt;Sheet1&gt;Ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> source&gt;Sheet1&gt;Pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> source&gt;Sheet1&gt;Nd</t>
-  </si>
-  <si>
-    <t>C131390001</t>
-  </si>
-  <si>
-    <t>c87a9954-7bc0-4994-a2dc-0fcf4b5e0e59</t>
-  </si>
-  <si>
-    <t>去钙沉积物</t>
-  </si>
-  <si>
-    <t>C131390002</t>
-  </si>
-  <si>
-    <t>ba690486-727f-40e0-bd6e-1f7faac3c7d7</t>
-  </si>
-  <si>
-    <t>22I-SWIR-S052-TVG2</t>
-  </si>
-  <si>
-    <t>C131390003</t>
-  </si>
-  <si>
-    <t>1fc276d4-9c7a-4b09-a79e-3f5dfd12158d</t>
-  </si>
-  <si>
-    <t>C131390004</t>
-  </si>
-  <si>
-    <t>44e5039c-35b9-43d4-82ce-a1e6b64d14c2</t>
-  </si>
-  <si>
-    <t>22I-SWIR-S055-TVG3</t>
-  </si>
-  <si>
-    <t>C131390005</t>
+    <t>8d76c7c4-f500-4191-b79c-1663bccaacc3</t>
+  </si>
+  <si>
+    <t>22II-(SMAR)-S004-TVG04</t>
+  </si>
+  <si>
+    <t>贵金属</t>
+  </si>
+  <si>
+    <t>09169670-4f83-44ff-afab-7116827227e6</t>
+  </si>
+  <si>
+    <t>22II-(SMAR)-S006-TVG06</t>
+  </si>
+  <si>
+    <t>bb6ddf6e-ad4d-4582-b34d-c5b74d48e966</t>
+  </si>
+  <si>
+    <t>22II-(SMAR)-S009-TVG09</t>
+  </si>
+  <si>
+    <t>aac8947d-7ed4-4c73-81a3-3105132a5a47</t>
+  </si>
+  <si>
+    <t>22II-(SMAR)-S039-TVG13</t>
+  </si>
+  <si>
+    <t>e7b4dfc2-353a-40d5-8c92-c39dac32b7dc</t>
+  </si>
+  <si>
+    <t>表层沉积物</t>
+  </si>
+  <si>
+    <t>8717f681-f878-494b-8db4-a23c02d6d66e</t>
+  </si>
+  <si>
+    <t>d709312d-5541-4126-b639-0ccbf340f722</t>
+  </si>
+  <si>
+    <t>3b3c4a34-d442-4abf-8001-a2de3def656e</t>
   </si>
 </sst>
 </file>
@@ -3276,283 +3255,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" t="n">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5.02</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" t="n">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" t="n">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>250</v>
-      </c>
-      <c r="B23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" t="n">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>250</v>
-      </c>
-      <c r="B26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6.72</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3700,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -3807,73 +3510,91 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>233</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>234</v>
-      </c>
-      <c r="E5" t="s">
-        <v>235</v>
       </c>
       <c r="F5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="s">
         <v>233</v>
       </c>
-      <c r="D6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" t="s">
         <v>243</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="11">
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4671,180 +4392,44 @@
       <c r="A6" t="s">
         <v>232</v>
       </c>
-      <c r="B6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6"/>
-      <c r="T6" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>208.0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.18</v>
+      <c r="M6" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7"/>
-      <c r="T7" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>218.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2920.0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1.69</v>
+        <v>235</v>
+      </c>
+      <c r="M7" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8"/>
-      <c r="T8" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1590.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8.04</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>322.0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.2</v>
+        <v>237</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9"/>
-      <c r="T9" t="n">
-        <v>73.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>396.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>3630.0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10"/>
-      <c r="T10" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1880.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.5</v>
+        <v>239</v>
+      </c>
+      <c r="M9" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +4695,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5229,8 +4814,49 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="E11" s="2"/>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.09</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5247,11 +4873,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:I207">
-      <formula1>检测仪器</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="规范化描述" prompt="请参照词汇集" sqref="E1:E4 E6:E1048576">
       <formula1>分析测试方法</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:I189">
+      <formula1>检测仪器</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/tree/sys/result.xlsx
+++ b/tree/sys/result.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="232">
   <si>
     <t>分析测试数据汇交模板 填写说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1123,48 +1123,6 @@
   <si>
     <t>申请人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8d76c7c4-f500-4191-b79c-1663bccaacc3</t>
-  </si>
-  <si>
-    <t>22II-(SMAR)-S004-TVG04</t>
-  </si>
-  <si>
-    <t>贵金属</t>
-  </si>
-  <si>
-    <t>09169670-4f83-44ff-afab-7116827227e6</t>
-  </si>
-  <si>
-    <t>22II-(SMAR)-S006-TVG06</t>
-  </si>
-  <si>
-    <t>bb6ddf6e-ad4d-4582-b34d-c5b74d48e966</t>
-  </si>
-  <si>
-    <t>22II-(SMAR)-S009-TVG09</t>
-  </si>
-  <si>
-    <t>aac8947d-7ed4-4c73-81a3-3105132a5a47</t>
-  </si>
-  <si>
-    <t>22II-(SMAR)-S039-TVG13</t>
-  </si>
-  <si>
-    <t>e7b4dfc2-353a-40d5-8c92-c39dac32b7dc</t>
-  </si>
-  <si>
-    <t>表层沉积物</t>
-  </si>
-  <si>
-    <t>8717f681-f878-494b-8db4-a23c02d6d66e</t>
-  </si>
-  <si>
-    <t>d709312d-5541-4126-b639-0ccbf340f722</t>
-  </si>
-  <si>
-    <t>3b3c4a34-d442-4abf-8001-a2de3def656e</t>
   </si>
 </sst>
 </file>
@@ -3509,94 +3467,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5">
-      <c r="D5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" t="s">
-        <v>245</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
@@ -4388,50 +4258,6 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>232</v>
-      </c>
-      <c r="M6" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M7" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>237</v>
-      </c>
-      <c r="M8" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>239</v>
-      </c>
-      <c r="M9" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:AK2"/>
@@ -4812,50 +4638,6 @@
       </c>
       <c r="L5" s="29" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K7" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>245</v>
-      </c>
-      <c r="K9" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.09</v>
       </c>
     </row>
   </sheetData>
